--- a/Design/OOA/Hefte/Soll-Zustand.xlsx
+++ b/Design/OOA/Hefte/Soll-Zustand.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50bf327223f671f6/Hochschule/Semester 2/SE1/PÜ3/Hefte/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mert\OneDrive\Hochschule\Semester 2\SE1\PÜ3\Hefte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17459B0-46CA-43FD-A268-0D941BDAC381}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02E43045-8D3B-40A2-B004-F20F560538E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
   <si>
     <t>Anforderungen</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Jeder Spieler hat zu Beginn jede Klasse genau einmal</t>
   </si>
   <si>
-    <t>Die Figuren werden zufällig in der erste Spalte bzw. Letzte Spalte, immer ein Feld frei und nicht auf der gleichen Zeile wie die gegnerischen Figuren platziert</t>
-  </si>
-  <si>
     <t>Spielablauf</t>
   </si>
   <si>
@@ -294,13 +291,145 @@
     <t>38.</t>
   </si>
   <si>
-    <t>Numm.</t>
-  </si>
-  <si>
     <t>Spielangaben</t>
   </si>
   <si>
     <t>Vergleichbarkeit der Programme</t>
+  </si>
+  <si>
+    <t>Das Spielfeld wird in Kordinaten unteteilt, diese Kordinaten bestehen aus einem Buchstaben und eine Zahl z.B. C4, also wie in Schiffeversenken</t>
+  </si>
+  <si>
+    <t>Wenn man nun eine Figur bewegen möchte, muss man seine Startkoordinate und seine Zielkoordinaten eingeben. Alle Buchstaben sollen sowohl als Klein- und Großbuchstabe erkannt werden, angezeigt sollen jedoch immer Großbuchstaben</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>40.</t>
+  </si>
+  <si>
+    <t>41.</t>
+  </si>
+  <si>
+    <t>Die Figuren werden zufällig in der erste Spalte bzw. Letzte Spalte platziert, dabei sollen zwischen den Figuren ein freies Fled sein und nicht auf der gleichen Zeile wie die gegnerischen Figuren platziert werden</t>
+  </si>
+  <si>
+    <t>Wenn eine Figur zwei Figuren angreifft und diese auch den angreifer angreifen können, werden alle beteiligte parallel ihre angriffsart auswählen</t>
+  </si>
+  <si>
+    <t>Das Tunier</t>
+  </si>
+  <si>
+    <t>Eure KI‘s werden in einem Turnier gegeneinander antreten</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>42.</t>
+  </si>
+  <si>
+    <t>43.</t>
+  </si>
+  <si>
+    <t>Wrapperklassen</t>
+  </si>
+  <si>
+    <t>Damit eure KI‘s gegeneinander spielen können benötigt ihr sog. Wrapper-Klassen Jede Gruppe erstellt eine Wrapper-Klasse mit dem Namen TeamX(1- …) diese enthält Methoden dessen Signatur exakt eingehalten werden muss</t>
+  </si>
+  <si>
+    <t>Methoden-Spielbeginn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void firstPlayer() Signalisiert dem Programm, dass es anfangen soll.  </t>
+  </si>
+  <si>
+    <t>void secondPlayer() Signalisiert dem Programm, dass es als zweites an der Reihe ist.</t>
+  </si>
+  <si>
+    <t>Methoden-Spielverlauf</t>
+  </si>
+  <si>
+    <t>boolean isItOver() Prüft ob das Spiel aktuell noch läuft.</t>
+  </si>
+  <si>
+    <t>String andTheWinnerIs() Legt fest welche KI gewonnen hat, wenn das Spiel abgeschlossen ist: „Winner“ falls die KI gewonnen hat. „Loser“ falls die KI verloren hat.</t>
+  </si>
+  <si>
+    <t>Bewegung</t>
+  </si>
+  <si>
+    <t>String move(String cord1, String cord2); Die eigentliche Zugdurchführung</t>
+  </si>
+  <si>
+    <t>Angriff</t>
+  </si>
+  <si>
+    <t>boolean canPlayerAttack(String Player); liefert true, wenn mindestens ein gegnerischer Kämpfer noch angreifen kann, ansonsten false</t>
+  </si>
+  <si>
+    <t>boolean isValidAttack(String cord1 , String cord2, String class ); Übergibt dem jeweiligen Programm den gegnerischen Angriff. Der Rückgabewert ist true, wenn der Angriff gültig ist, ansonsten false</t>
+  </si>
+  <si>
+    <t>String attack(String cord1, String cord2, String attackType); Angriffs Durchführung</t>
+  </si>
+  <si>
+    <t>String[ ] getNextAttack(); Erfragt vom jeweiligen Programm seinen Angriff</t>
+  </si>
+  <si>
+    <t>Angriffsauswertung</t>
+  </si>
+  <si>
+    <t>String whoIsTheLooser(String ko1, String ko2) Liefert die Koordinate des Kampfverlieres zurück, dieser bekommt den Schaden abgezogen</t>
+  </si>
+  <si>
+    <t>String[ ] getNextMove(); Erfragt vom jeweiligen Programm seinen Zug</t>
+  </si>
+  <si>
+    <t>boolean isValidMove(String cord1, String cord2, String class); Übergibt dem jeweiligen Programm den gegnerischen Zug. Der Rückgabewert ist true, wenn der Zug gültig ist, ansonsten ansonsten</t>
+  </si>
+  <si>
+    <t>boolean canPlayerMove(String Player); liefert true, wenn sich mindestens ein gegnerischer Kämpfer noch bewegen kann, ansonsten false</t>
+  </si>
+  <si>
+    <t>44.</t>
+  </si>
+  <si>
+    <t>45.</t>
+  </si>
+  <si>
+    <t>46.</t>
+  </si>
+  <si>
+    <t>47.</t>
+  </si>
+  <si>
+    <t>48.</t>
+  </si>
+  <si>
+    <t>49.</t>
+  </si>
+  <si>
+    <t>50.</t>
+  </si>
+  <si>
+    <t>51.</t>
+  </si>
+  <si>
+    <t>52.</t>
+  </si>
+  <si>
+    <t>53.</t>
+  </si>
+  <si>
+    <t>54.</t>
+  </si>
+  <si>
+    <t>55.</t>
+  </si>
+  <si>
+    <t>56.</t>
   </si>
 </sst>
 </file>
@@ -317,12 +446,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -355,6 +478,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -376,27 +506,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="61">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -677,32 +792,6 @@
         <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </right>
       <top/>
@@ -937,242 +1026,547 @@
         <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39988402966399123"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,628 +1895,946 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G44"/>
+  <dimension ref="B3:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="3"/>
-    <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="9"/>
-    <col min="6" max="7" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="4"/>
+    <col min="6" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="2:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="90"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="91"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="81"/>
+      <c r="D8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="89"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="89"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="92"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="D11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="89"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="81"/>
+      <c r="D12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="89"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="81"/>
+      <c r="D13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="94"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="96"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="82"/>
+      <c r="D18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="98"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="94"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="96"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="98"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="91"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="78"/>
+      <c r="D23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="89"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="79"/>
+      <c r="D24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="90"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="91"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="89"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="90"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="91"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="90"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="91"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="84"/>
+      <c r="D31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="89"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="84"/>
+      <c r="D32" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="89"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="84"/>
+      <c r="D33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="89"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="84"/>
+      <c r="D34" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="89"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="89"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="84"/>
+      <c r="D36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="100"/>
+      <c r="F36" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="84"/>
+      <c r="D37" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="89"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="85"/>
+      <c r="D38" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="90"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="91"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="67"/>
+      <c r="D40" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="89"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="89"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="68"/>
+      <c r="D42" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="90"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="42"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="42"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="42"/>
-    </row>
-    <row r="33" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="42"/>
-    </row>
-    <row r="34" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="42"/>
-    </row>
-    <row r="35" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="39"/>
-    </row>
-    <row r="36" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="41"/>
-    </row>
-    <row r="37" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="42"/>
-    </row>
-    <row r="38" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="35" t="s">
+      <c r="D43" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="39"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="36" t="s">
+      <c r="E43" s="8"/>
+      <c r="F43" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="I43" s="108"/>
+    </row>
+    <row r="44" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="70"/>
+      <c r="D44" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="41"/>
-    </row>
-    <row r="40" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="28" t="s">
+      <c r="E44" s="100"/>
+      <c r="F44" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="70"/>
+      <c r="D45" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="42"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="28" t="s">
+      <c r="E45" s="100"/>
+      <c r="F45" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="71"/>
+      <c r="D46" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="42"/>
-    </row>
-    <row r="42" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="47"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="2"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="14"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="113"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="109"/>
+      <c r="D48" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
+    </row>
+    <row r="50" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="57"/>
+      <c r="D51" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
+    </row>
+    <row r="52" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="35"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
+    </row>
+    <row r="53" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="57"/>
+      <c r="D53" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="35"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="46"/>
+    </row>
+    <row r="55" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="59"/>
+      <c r="D55" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="38"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="46"/>
+    </row>
+    <row r="56" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="59"/>
+      <c r="D56" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="60"/>
+      <c r="D57" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="45"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="48"/>
+    </row>
+    <row r="58" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="47"/>
+    </row>
+    <row r="59" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="59"/>
+      <c r="D59" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="46"/>
+    </row>
+    <row r="60" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="59"/>
+      <c r="D60" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="45"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="46"/>
+    </row>
+    <row r="61" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="60"/>
+      <c r="D61" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="46"/>
+    </row>
+    <row r="62" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="54"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="46"/>
+    </row>
+    <row r="63" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63"/>
+      <c r="G63" s="53"/>
+    </row>
+    <row r="64" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B47:G47"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B2 B4:B1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="fett regel">
+  <conditionalFormatting sqref="B1:B2 B4:B46 B48:B1048576">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fett regel">
       <formula>NOT(ISERROR(SEARCH("fett regel",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
